--- a/examples/reports/example4.xlsx
+++ b/examples/reports/example4.xlsx
@@ -541,17 +541,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-07-22</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-19.948698924081288</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.785096087732718</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -563,17 +563,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-07-22</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.438650268833321</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.827001108441038</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -614,17 +614,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-07-22</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>39.90121482183629</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14.573352856222083</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -643,17 +643,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-07-22</t>
+          <t>2023-07-15</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-48.578060547837346</t>
+          <t>-0.9768714588684304</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.804749948269963</t>
+          <t>22.011826372524684</t>
         </is>
       </c>
     </row>
@@ -672,17 +672,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-07-22</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>48.54251562931398</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9.465926994455128</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/examples/reports/example4.xlsx
+++ b/examples/reports/example4.xlsx
@@ -519,17 +519,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2023-07-22</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>-6.264267927968902</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>13.761075340910882</t>
         </is>
       </c>
     </row>
@@ -614,17 +614,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2023-07-22</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>-32.061405815894176</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>17.641995898197777</t>
         </is>
       </c>
     </row>
@@ -643,17 +643,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-07-15</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.9768714588684304</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22.011826372524684</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="C13" s="9" t="inlineStr">
         <is>
-          <t>July 23, 2023</t>
+          <t>July 26, 2023</t>
         </is>
       </c>
     </row>

--- a/examples/reports/example4.xlsx
+++ b/examples/reports/example4.xlsx
@@ -20,6 +20,7 @@
   <fonts count="6">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -40,12 +41,14 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="1"/>
       <sz val="10"/>
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="1"/>
       <sz val="12"/>
@@ -78,7 +81,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -90,6 +93,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -101,7 +107,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -474,233 +491,237 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="5">
-      <c r="A1" s="6" t="inlineStr">
+    <row r="1" ht="12.8" customHeight="1" s="6">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>River name</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>Measurement day</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>Water level</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>Discharge level</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="5">
-      <c r="A2" s="8" t="inlineStr">
+    <row r="2" ht="15" customHeight="1" s="6">
+      <c r="A2" s="9" t="inlineStr">
         <is>
           <t>Region A</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="5">
-      <c r="A3" t="inlineStr">
+    <row r="3" ht="12.8" customHeight="1" s="6">
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>River 1</t>
+        </is>
+      </c>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C3" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="6">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>River 2</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="6">
+      <c r="A5" s="11" t="inlineStr">
         <is>
           <t>River 3</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2023-07-22</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-6.264267927968902</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.761075340910882</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="12.8" customHeight="1" s="5">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>River 2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>River 1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>33.267434751996916</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr">
+        <is>
+          <t>12.932795431773217</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12.8" customHeight="1" s="6">
+      <c r="A6" s="12" t="inlineStr">
         <is>
           <t>Region B</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="7" ht="12.8" customHeight="1" s="6">
+      <c r="A7" s="11" t="inlineStr">
+        <is>
+          <t>River 4</t>
+        </is>
+      </c>
+      <c r="B7" s="11" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="C7" s="11" t="inlineStr">
+        <is>
+          <t>-41.85185644472806</t>
+        </is>
+      </c>
+      <c r="D7" s="11" t="inlineStr">
+        <is>
+          <t>15.735664445226973</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="12.8" customHeight="1" s="6">
+      <c r="A8" s="11" t="inlineStr">
         <is>
           <t>River 5</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>River 4</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2023-07-22</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>-32.061405815894176</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>17.641995898197777</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="inlineStr">
+      <c r="B8" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="12.8" customHeight="1" s="6">
+      <c r="A9" s="12" t="inlineStr">
         <is>
           <t>Region C</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="10" ht="12.8" customHeight="1" s="6">
+      <c r="A10" s="11" t="inlineStr">
         <is>
           <t>River 6</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="8" t="inlineStr">
+      <c r="B10" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D10" s="11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="12.8" customHeight="1" s="6">
+      <c r="A11" s="12" t="inlineStr">
         <is>
           <t>Region D</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="12" ht="12.8" customHeight="1" s="6">
+      <c r="A12" s="11" t="inlineStr">
         <is>
           <t>River 7</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B12" s="11" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="C12" s="11" t="inlineStr">
+        <is>
+          <t>13.169512684184312</t>
+        </is>
+      </c>
+      <c r="D12" s="11" t="inlineStr">
+        <is>
+          <t>5.83401579779427</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="inlineStr">
+      <c r="A13" s="13" t="inlineStr">
         <is>
           <t>Generated by: John Doe</t>
         </is>
       </c>
-      <c r="C13" s="9" t="inlineStr">
-        <is>
-          <t>July 26, 2023</t>
+      <c r="C13" s="13" t="inlineStr">
+        <is>
+          <t>July 26, 2024</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/examples/reports/example4.xlsx
+++ b/examples/reports/example4.xlsx
@@ -75,11 +75,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -536,17 +536,17 @@
       </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>10.1</t>
         </is>
       </c>
     </row>
@@ -558,17 +558,17 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>14.9</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>7.0</t>
         </is>
       </c>
     </row>
@@ -580,17 +580,17 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>33.267434751996916</t>
+          <t>23.7</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>12.932795431773217</t>
+          <t>23.1</t>
         </is>
       </c>
     </row>
@@ -609,17 +609,17 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>-41.85185644472806</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" s="11" t="inlineStr">
         <is>
-          <t>15.735664445226973</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -631,17 +631,17 @@
       </c>
       <c r="B8" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="C8" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>35.8</t>
         </is>
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>17.5</t>
         </is>
       </c>
     </row>
@@ -660,17 +660,17 @@
       </c>
       <c r="B10" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="C10" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>25.2</t>
         </is>
       </c>
       <c r="D10" s="11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
@@ -689,17 +689,17 @@
       </c>
       <c r="B12" s="11" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
-          <t>13.169512684184312</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D12" s="11" t="inlineStr">
         <is>
-          <t>5.83401579779427</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="C13" s="13" t="inlineStr">
         <is>
-          <t>July 26, 2024</t>
+          <t>July 29, 2024</t>
         </is>
       </c>
     </row>
